--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H2">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I2">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J2">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N2">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O2">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P2">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q2">
-        <v>8951.389523123935</v>
+        <v>9218.866528874874</v>
       </c>
       <c r="R2">
-        <v>8951.389523123935</v>
+        <v>36875.4661154995</v>
       </c>
       <c r="S2">
-        <v>0.3827641472535442</v>
+        <v>0.3695438027164512</v>
       </c>
       <c r="T2">
-        <v>0.3827641472535442</v>
+        <v>0.2626819409933201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>278.944029823705</v>
+        <v>278.978638</v>
       </c>
       <c r="H3">
-        <v>278.944029823705</v>
+        <v>557.957276</v>
       </c>
       <c r="I3">
-        <v>0.5454222988641262</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J3">
-        <v>0.5454222988641262</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>13.6369725590517</v>
+        <v>0.195349</v>
       </c>
       <c r="N3">
-        <v>13.6369725590517</v>
+        <v>0.586047</v>
       </c>
       <c r="O3">
-        <v>0.2982242419302018</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P3">
-        <v>0.2982242419302018</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q3">
-        <v>3803.952080217164</v>
+        <v>54.498197954662</v>
       </c>
       <c r="R3">
-        <v>3803.952080217164</v>
+        <v>326.989187727972</v>
       </c>
       <c r="S3">
-        <v>0.162658151610582</v>
+        <v>0.002184593002868614</v>
       </c>
       <c r="T3">
-        <v>0.162658151610582</v>
+        <v>0.00232930356045343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.8973048579944</v>
+        <v>278.978638</v>
       </c>
       <c r="H4">
-        <v>53.8973048579944</v>
+        <v>557.957276</v>
       </c>
       <c r="I4">
-        <v>0.1053859870627343</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J4">
-        <v>0.1053859870627343</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>32.0902710439126</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N4">
-        <v>32.0902710439126</v>
+        <v>0.832376</v>
       </c>
       <c r="O4">
-        <v>0.7017757580697982</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P4">
-        <v>0.7017757580697982</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q4">
-        <v>1729.579121429428</v>
+        <v>77.40504092796267</v>
       </c>
       <c r="R4">
-        <v>1729.579121429428</v>
+        <v>464.430245567776</v>
       </c>
       <c r="S4">
-        <v>0.07395733096088429</v>
+        <v>0.00310282756392536</v>
       </c>
       <c r="T4">
-        <v>0.07395733096088429</v>
+        <v>0.003308363289012629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.8973048579944</v>
+        <v>278.978638</v>
       </c>
       <c r="H5">
-        <v>53.8973048579944</v>
+        <v>557.957276</v>
       </c>
       <c r="I5">
-        <v>0.1053859870627343</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J5">
-        <v>0.1053859870627343</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6369725590517</v>
+        <v>14.267144</v>
       </c>
       <c r="N5">
-        <v>13.6369725590517</v>
+        <v>42.801432</v>
       </c>
       <c r="O5">
-        <v>0.2982242419302018</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P5">
-        <v>0.2982242419302018</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q5">
-        <v>734.9960673553135</v>
+        <v>3980.228401269872</v>
       </c>
       <c r="R5">
-        <v>734.9960673553135</v>
+        <v>23881.37040761923</v>
       </c>
       <c r="S5">
-        <v>0.03142865610184999</v>
+        <v>0.1595498464456891</v>
       </c>
       <c r="T5">
-        <v>0.03142865610184999</v>
+        <v>0.1701186559270935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.139229399122395</v>
+        <v>278.978638</v>
       </c>
       <c r="H6">
-        <v>0.139229399122395</v>
+        <v>557.957276</v>
       </c>
       <c r="I6">
-        <v>0.0002722367601371558</v>
+        <v>0.535522688967824</v>
       </c>
       <c r="J6">
-        <v>0.0002722367601371558</v>
+        <v>0.4392497582540043</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>32.0902710439126</v>
+        <v>0.102085</v>
       </c>
       <c r="N6">
-        <v>32.0902710439126</v>
+        <v>0.20417</v>
       </c>
       <c r="O6">
-        <v>0.7017757580697982</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P6">
-        <v>0.7017757580697982</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q6">
-        <v>4.467909155118742</v>
+        <v>28.47953426023</v>
       </c>
       <c r="R6">
-        <v>4.467909155118742</v>
+        <v>113.91813704092</v>
       </c>
       <c r="S6">
-        <v>0.0001910491587197184</v>
+        <v>0.00114161923888959</v>
       </c>
       <c r="T6">
-        <v>0.0001910491587197184</v>
+        <v>0.0008114944841246126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.139229399122395</v>
+        <v>57.571794</v>
       </c>
       <c r="H7">
-        <v>0.139229399122395</v>
+        <v>172.715382</v>
       </c>
       <c r="I7">
-        <v>0.0002722367601371558</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J7">
-        <v>0.0002722367601371558</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.6369725590517</v>
+        <v>33.0450625</v>
       </c>
       <c r="N7">
-        <v>13.6369725590517</v>
+        <v>66.090125</v>
       </c>
       <c r="O7">
-        <v>0.2982242419302018</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P7">
-        <v>0.2982242419302018</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q7">
-        <v>1.898667495245357</v>
+        <v>1902.463530967125</v>
       </c>
       <c r="R7">
-        <v>1.898667495245357</v>
+        <v>11414.78118580275</v>
       </c>
       <c r="S7">
-        <v>8.118760141743748E-05</v>
+        <v>0.07626139347618496</v>
       </c>
       <c r="T7">
-        <v>8.118760141743748E-05</v>
+        <v>0.08131305699320739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.341018578847393</v>
+        <v>57.571794</v>
       </c>
       <c r="H8">
-        <v>0.341018578847393</v>
+        <v>172.715382</v>
       </c>
       <c r="I8">
-        <v>0.0006667973404839508</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J8">
-        <v>0.0006667973404839508</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.0902710439126</v>
+        <v>0.195349</v>
       </c>
       <c r="N8">
-        <v>32.0902710439126</v>
+        <v>0.586047</v>
       </c>
       <c r="O8">
-        <v>0.7017757580697982</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P8">
-        <v>0.7017757580697982</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q8">
-        <v>10.94337862622272</v>
+        <v>11.246592386106</v>
       </c>
       <c r="R8">
-        <v>10.94337862622272</v>
+        <v>101.219331474954</v>
       </c>
       <c r="S8">
-        <v>0.00046794220909705</v>
+        <v>0.0004508264117878202</v>
       </c>
       <c r="T8">
-        <v>0.00046794220909705</v>
+        <v>0.0007210346948458367</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.341018578847393</v>
+        <v>57.571794</v>
       </c>
       <c r="H9">
-        <v>0.341018578847393</v>
+        <v>172.715382</v>
       </c>
       <c r="I9">
-        <v>0.0006667973404839508</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J9">
-        <v>0.0006667973404839508</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>13.6369725590517</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N9">
-        <v>13.6369725590517</v>
+        <v>0.832376</v>
       </c>
       <c r="O9">
-        <v>0.2982242419302018</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P9">
-        <v>0.2982242419302018</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q9">
-        <v>4.650461001868707</v>
+        <v>15.973793200848</v>
       </c>
       <c r="R9">
-        <v>4.650461001868707</v>
+        <v>143.764138807632</v>
       </c>
       <c r="S9">
-        <v>0.0001988551313869009</v>
+        <v>0.0006403190961446756</v>
       </c>
       <c r="T9">
-        <v>0.0001988551313869009</v>
+        <v>0.001024102120063746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>166.676336384112</v>
+        <v>57.571794</v>
       </c>
       <c r="H10">
-        <v>166.676336384112</v>
+        <v>172.715382</v>
       </c>
       <c r="I10">
-        <v>0.3259040554276355</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J10">
-        <v>0.3259040554276355</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0902710439126</v>
+        <v>14.267144</v>
       </c>
       <c r="N10">
-        <v>32.0902710439126</v>
+        <v>42.801432</v>
       </c>
       <c r="O10">
-        <v>0.7017757580697982</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P10">
-        <v>0.7017757580697982</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q10">
-        <v>5348.688811172506</v>
+        <v>821.3850753363361</v>
       </c>
       <c r="R10">
-        <v>5348.688811172506</v>
+        <v>7392.465678027024</v>
       </c>
       <c r="S10">
-        <v>0.2287115655557505</v>
+        <v>0.03292571416275553</v>
       </c>
       <c r="T10">
-        <v>0.2287115655557505</v>
+        <v>0.05266014067316244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>166.676336384112</v>
+        <v>57.571794</v>
       </c>
       <c r="H11">
-        <v>166.676336384112</v>
+        <v>172.715382</v>
       </c>
       <c r="I11">
-        <v>0.3259040554276355</v>
+        <v>0.1105138449044318</v>
       </c>
       <c r="J11">
-        <v>0.3259040554276355</v>
+        <v>0.1359695321730118</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>13.6369725590517</v>
+        <v>0.102085</v>
       </c>
       <c r="N11">
-        <v>13.6369725590517</v>
+        <v>0.20417</v>
       </c>
       <c r="O11">
-        <v>0.2982242419302018</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P11">
-        <v>0.2982242419302018</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q11">
-        <v>2272.960625513406</v>
+        <v>5.87721659049</v>
       </c>
       <c r="R11">
-        <v>2272.960625513406</v>
+        <v>35.26329954294</v>
       </c>
       <c r="S11">
-        <v>0.09719248987188507</v>
+        <v>0.0002355917575588287</v>
       </c>
       <c r="T11">
-        <v>0.09719248987188507</v>
+        <v>0.0002511976917323602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.4297039276709</v>
+        <v>0.2011773333333333</v>
       </c>
       <c r="H12">
-        <v>11.4297039276709</v>
+        <v>0.6035320000000001</v>
       </c>
       <c r="I12">
-        <v>0.02234862454488288</v>
+        <v>0.0003861766165266135</v>
       </c>
       <c r="J12">
-        <v>0.02234862454488288</v>
+        <v>0.0004751282875976973</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N12">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O12">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P12">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q12">
-        <v>366.7822969906316</v>
+        <v>6.647917553583333</v>
       </c>
       <c r="R12">
-        <v>366.7822969906316</v>
+        <v>39.88750532150001</v>
       </c>
       <c r="S12">
-        <v>0.01568372293180248</v>
+        <v>0.000266485768635644</v>
       </c>
       <c r="T12">
-        <v>0.01568372293180248</v>
+        <v>0.0002841381661838576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2011773333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6035320000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0003861766165266135</v>
+      </c>
+      <c r="J13">
+        <v>0.0004751282875976973</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.195349</v>
+      </c>
+      <c r="N13">
+        <v>0.586047</v>
+      </c>
+      <c r="O13">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P13">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q13">
+        <v>0.03929979088933334</v>
+      </c>
+      <c r="R13">
+        <v>0.353698118004</v>
+      </c>
+      <c r="S13">
+        <v>1.575355725751901E-06</v>
+      </c>
+      <c r="T13">
+        <v>2.519564305220351E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2011773333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.6035320000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0003861766165266135</v>
+      </c>
+      <c r="J14">
+        <v>0.0004751282875976973</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.832376</v>
+      </c>
+      <c r="O14">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P14">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q14">
+        <v>0.05581839467022223</v>
+      </c>
+      <c r="R14">
+        <v>0.5023655520320001</v>
+      </c>
+      <c r="S14">
+        <v>2.237513881273113E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.578594990029972E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2011773333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.6035320000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0003861766165266135</v>
+      </c>
+      <c r="J15">
+        <v>0.0004751282875976973</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.267144</v>
+      </c>
+      <c r="N15">
+        <v>42.801432</v>
+      </c>
+      <c r="O15">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P15">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q15">
+        <v>2.870225984202667</v>
+      </c>
+      <c r="R15">
+        <v>25.832033857824</v>
+      </c>
+      <c r="S15">
+        <v>0.0001150547327630388</v>
+      </c>
+      <c r="T15">
+        <v>0.0001840141836397356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2011773333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.6035320000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0003861766165266135</v>
+      </c>
+      <c r="J16">
+        <v>0.0004751282875976973</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.102085</v>
+      </c>
+      <c r="N16">
+        <v>0.20417</v>
+      </c>
+      <c r="O16">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P16">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q16">
+        <v>0.02053718807333333</v>
+      </c>
+      <c r="R16">
+        <v>0.12322312844</v>
+      </c>
+      <c r="S16">
+        <v>8.232455209055729E-07</v>
+      </c>
+      <c r="T16">
+        <v>8.777784788538106E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.145518</v>
+      </c>
+      <c r="I17">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J17">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.0450625</v>
+      </c>
+      <c r="N17">
+        <v>66.090125</v>
+      </c>
+      <c r="O17">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P17">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q17">
+        <v>12.61790463495833</v>
+      </c>
+      <c r="R17">
+        <v>75.70742780975</v>
+      </c>
+      <c r="S17">
+        <v>0.000505796287050174</v>
+      </c>
+      <c r="T17">
+        <v>0.0005393009547970946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.145518</v>
+      </c>
+      <c r="I18">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J18">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.195349</v>
+      </c>
+      <c r="N18">
+        <v>0.586047</v>
+      </c>
+      <c r="O18">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P18">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q18">
+        <v>0.07459193192733334</v>
+      </c>
+      <c r="R18">
+        <v>0.6713273873459999</v>
+      </c>
+      <c r="S18">
+        <v>2.990062399759856E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.782192599211651E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.145518</v>
+      </c>
+      <c r="I19">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J19">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.832376</v>
+      </c>
+      <c r="O19">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P19">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q19">
+        <v>0.1059446323075556</v>
+      </c>
+      <c r="R19">
+        <v>0.9535016907680001</v>
+      </c>
+      <c r="S19">
+        <v>4.246854228521792E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.792257868330352E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="H13">
-        <v>11.4297039276709</v>
-      </c>
-      <c r="I13">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="J13">
-        <v>0.02234862454488288</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="N13">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="O13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="P13">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="Q13">
-        <v>155.8665588197335</v>
-      </c>
-      <c r="R13">
-        <v>155.8665588197335</v>
-      </c>
-      <c r="S13">
-        <v>0.006664901613080397</v>
-      </c>
-      <c r="T13">
-        <v>0.006664901613080397</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.145518</v>
+      </c>
+      <c r="I20">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J20">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.267144</v>
+      </c>
+      <c r="N20">
+        <v>42.801432</v>
+      </c>
+      <c r="O20">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P20">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q20">
+        <v>5.447756753530667</v>
+      </c>
+      <c r="R20">
+        <v>49.029810781776</v>
+      </c>
+      <c r="S20">
+        <v>0.0002183766020115764</v>
+      </c>
+      <c r="T20">
+        <v>0.0003492632695774583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3818393333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.145518</v>
+      </c>
+      <c r="I21">
+        <v>0.0007329723451454657</v>
+      </c>
+      <c r="J21">
+        <v>0.0009018047191405575</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.102085</v>
+      </c>
+      <c r="N21">
+        <v>0.20417</v>
+      </c>
+      <c r="O21">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P21">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q21">
+        <v>0.03898006834333333</v>
+      </c>
+      <c r="R21">
+        <v>0.23388041006</v>
+      </c>
+      <c r="S21">
+        <v>1.562539455433532E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.666044298462483E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H22">
+        <v>510.60878</v>
+      </c>
+      <c r="I22">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J22">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.0450625</v>
+      </c>
+      <c r="N22">
+        <v>66.090125</v>
+      </c>
+      <c r="O22">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P22">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q22">
+        <v>5624.366349382917</v>
+      </c>
+      <c r="R22">
+        <v>33746.1980962975</v>
+      </c>
+      <c r="S22">
+        <v>0.2254561037532532</v>
+      </c>
+      <c r="T22">
+        <v>0.2403906377567002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H23">
+        <v>510.60878</v>
+      </c>
+      <c r="I23">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J23">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.195349</v>
+      </c>
+      <c r="N23">
+        <v>0.586047</v>
+      </c>
+      <c r="O23">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P23">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q23">
+        <v>33.24897152140667</v>
+      </c>
+      <c r="R23">
+        <v>299.24074369266</v>
+      </c>
+      <c r="S23">
+        <v>0.001332804996573823</v>
+      </c>
+      <c r="T23">
+        <v>0.002131637851878792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H24">
+        <v>510.60878</v>
+      </c>
+      <c r="I24">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J24">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.832376</v>
+      </c>
+      <c r="O24">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P24">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q24">
+        <v>47.22427709569779</v>
+      </c>
+      <c r="R24">
+        <v>425.01849386128</v>
+      </c>
+      <c r="S24">
+        <v>0.001893013515687535</v>
+      </c>
+      <c r="T24">
+        <v>0.003027614148004275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H25">
+        <v>510.60878</v>
+      </c>
+      <c r="I25">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J25">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.267144</v>
+      </c>
+      <c r="N25">
+        <v>42.801432</v>
+      </c>
+      <c r="O25">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P25">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q25">
+        <v>2428.309663974774</v>
+      </c>
+      <c r="R25">
+        <v>21854.78697577296</v>
+      </c>
+      <c r="S25">
+        <v>0.09734025160117657</v>
+      </c>
+      <c r="T25">
+        <v>0.155682313134981</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>170.2029266666667</v>
+      </c>
+      <c r="H26">
+        <v>510.60878</v>
+      </c>
+      <c r="I26">
+        <v>0.3267186678240457</v>
+      </c>
+      <c r="J26">
+        <v>0.4019748336024425</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.102085</v>
+      </c>
+      <c r="N26">
+        <v>0.20417</v>
+      </c>
+      <c r="O26">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P26">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q26">
+        <v>17.37516576876667</v>
+      </c>
+      <c r="R26">
+        <v>104.2509946126</v>
+      </c>
+      <c r="S26">
+        <v>0.0006964939573544719</v>
+      </c>
+      <c r="T26">
+        <v>0.0007426307108782964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>13.610064</v>
+      </c>
+      <c r="H27">
+        <v>27.220128</v>
+      </c>
+      <c r="I27">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J27">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>33.0450625</v>
+      </c>
+      <c r="N27">
+        <v>66.090125</v>
+      </c>
+      <c r="O27">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P27">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q27">
+        <v>449.745415509</v>
+      </c>
+      <c r="R27">
+        <v>1798.981662036</v>
+      </c>
+      <c r="S27">
+        <v>0.01802831514925625</v>
+      </c>
+      <c r="T27">
+        <v>0.01281502431223179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>13.610064</v>
+      </c>
+      <c r="H28">
+        <v>27.220128</v>
+      </c>
+      <c r="I28">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J28">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.195349</v>
+      </c>
+      <c r="N28">
+        <v>0.586047</v>
+      </c>
+      <c r="O28">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P28">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q28">
+        <v>2.658712392336</v>
+      </c>
+      <c r="R28">
+        <v>15.952274354016</v>
+      </c>
+      <c r="S28">
+        <v>0.0001065760833737887</v>
+      </c>
+      <c r="T28">
+        <v>0.0001136358352039809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>13.610064</v>
+      </c>
+      <c r="H29">
+        <v>27.220128</v>
+      </c>
+      <c r="I29">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J29">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.832376</v>
+      </c>
+      <c r="O29">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P29">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q29">
+        <v>3.776230210688</v>
+      </c>
+      <c r="R29">
+        <v>22.657381264128</v>
+      </c>
+      <c r="S29">
+        <v>0.0001513724564315503</v>
+      </c>
+      <c r="T29">
+        <v>0.0001613995839305531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>13.610064</v>
+      </c>
+      <c r="H30">
+        <v>27.220128</v>
+      </c>
+      <c r="I30">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J30">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.267144</v>
+      </c>
+      <c r="N30">
+        <v>42.801432</v>
+      </c>
+      <c r="O30">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P30">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q30">
+        <v>194.176742937216</v>
+      </c>
+      <c r="R30">
+        <v>1165.060457623296</v>
+      </c>
+      <c r="S30">
+        <v>0.007783691385417122</v>
+      </c>
+      <c r="T30">
+        <v>0.008299294208905423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13.610064</v>
+      </c>
+      <c r="H31">
+        <v>27.220128</v>
+      </c>
+      <c r="I31">
+        <v>0.0261256493420266</v>
+      </c>
+      <c r="J31">
+        <v>0.0214289429638033</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.102085</v>
+      </c>
+      <c r="N31">
+        <v>0.20417</v>
+      </c>
+      <c r="O31">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P31">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q31">
+        <v>1.38938338344</v>
+      </c>
+      <c r="R31">
+        <v>5.557533533759999</v>
+      </c>
+      <c r="S31">
+        <v>5.569426754789233E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.958902353155428E-05</v>
       </c>
     </row>
   </sheetData>
